--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H2">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I2">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J2">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>1022.246880671027</v>
+        <v>1022.58859637623</v>
       </c>
       <c r="R2">
-        <v>1022.246880671027</v>
+        <v>4090.35438550492</v>
       </c>
       <c r="S2">
-        <v>0.2797688924819779</v>
+        <v>0.2647319089800996</v>
       </c>
       <c r="T2">
-        <v>0.2797688924819779</v>
+        <v>0.1759250407136434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H3">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I3">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J3">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>30.35780253240593</v>
+        <v>31.90772847959167</v>
       </c>
       <c r="R3">
-        <v>30.35780253240593</v>
+        <v>191.44637087755</v>
       </c>
       <c r="S3">
-        <v>0.008308334271563319</v>
+        <v>0.008260402963180691</v>
       </c>
       <c r="T3">
-        <v>0.008308334271563319</v>
+        <v>0.008234056860810295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H4">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I4">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J4">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>9.731902148721927</v>
+        <v>18.330320580545</v>
       </c>
       <c r="R4">
-        <v>9.731902148721927</v>
+        <v>109.98192348327</v>
       </c>
       <c r="S4">
-        <v>0.002663430466135227</v>
+        <v>0.004745428197323173</v>
       </c>
       <c r="T4">
-        <v>0.002663430466135227</v>
+        <v>0.004730292914258252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H5">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I5">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J5">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>22.76341017185788</v>
+        <v>24.98896644270667</v>
       </c>
       <c r="R5">
-        <v>22.76341017185788</v>
+        <v>149.93379865624</v>
       </c>
       <c r="S5">
-        <v>0.006229898249934733</v>
+        <v>0.006469245611832992</v>
       </c>
       <c r="T5">
-        <v>0.006229898249934733</v>
+        <v>0.006448612307633633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H6">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I6">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J6">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>614.2285851991284</v>
+        <v>636.8458932596151</v>
       </c>
       <c r="R6">
-        <v>614.2285851991284</v>
+        <v>3821.07535955769</v>
       </c>
       <c r="S6">
-        <v>0.1681022992206454</v>
+        <v>0.1648692637940644</v>
       </c>
       <c r="T6">
-        <v>0.1681022992206454</v>
+        <v>0.1643434223162319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H7">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I7">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J7">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>17.2693231154864</v>
+        <v>20.628137502225</v>
       </c>
       <c r="R7">
-        <v>17.2693231154864</v>
+        <v>82.51255000889999</v>
       </c>
       <c r="S7">
-        <v>0.004726274536305352</v>
+        <v>0.005340296419322506</v>
       </c>
       <c r="T7">
-        <v>0.004726274536305352</v>
+        <v>0.003548842557784975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H8">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J8">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>10.85505384651884</v>
+        <v>13.55806791826933</v>
       </c>
       <c r="R8">
-        <v>10.85505384651884</v>
+        <v>81.348407509616</v>
       </c>
       <c r="S8">
-        <v>0.002970815025113418</v>
+        <v>0.003509967952708061</v>
       </c>
       <c r="T8">
-        <v>0.002970815025113418</v>
+        <v>0.003498773102358623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H9">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J9">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>0.3223639879780679</v>
+        <v>0.4230510210822222</v>
       </c>
       <c r="R9">
-        <v>0.3223639879780679</v>
+        <v>3.80745918974</v>
       </c>
       <c r="S9">
-        <v>8.822469170411806E-05</v>
+        <v>0.0001095211747949827</v>
       </c>
       <c r="T9">
-        <v>8.822469170411806E-05</v>
+        <v>0.0001637577945187898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H10">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J10">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>0.1033413002777608</v>
+        <v>0.2430339359106667</v>
       </c>
       <c r="R10">
-        <v>0.1033413002777608</v>
+        <v>2.187305423196</v>
       </c>
       <c r="S10">
-        <v>2.828248407799332E-05</v>
+        <v>6.291761714200309E-05</v>
       </c>
       <c r="T10">
-        <v>2.828248407799332E-05</v>
+        <v>9.407541727742711E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H11">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J11">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>0.2417205156778869</v>
+        <v>0.3313180935502222</v>
       </c>
       <c r="R11">
-        <v>0.2417205156778869</v>
+        <v>2.981862841952</v>
       </c>
       <c r="S11">
-        <v>6.615415731763719E-05</v>
+        <v>8.577298015645695E-05</v>
       </c>
       <c r="T11">
-        <v>6.615415731763719E-05</v>
+        <v>0.0001282491179081908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H12">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J12">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>6.522381718622539</v>
+        <v>8.443669237934666</v>
       </c>
       <c r="R12">
-        <v>6.522381718622539</v>
+        <v>75.993023141412</v>
       </c>
       <c r="S12">
-        <v>0.001785047765140562</v>
+        <v>0.002185931550651259</v>
       </c>
       <c r="T12">
-        <v>0.001785047765140562</v>
+        <v>0.003268439462722849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H13">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J13">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N13">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O13">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P13">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q13">
-        <v>0.1833798037011221</v>
+        <v>0.2734997146199999</v>
       </c>
       <c r="R13">
-        <v>0.1833798037011221</v>
+        <v>1.64099828772</v>
       </c>
       <c r="S13">
-        <v>5.018745036555977E-05</v>
+        <v>7.080472226411001E-05</v>
       </c>
       <c r="T13">
-        <v>5.018745036555977E-05</v>
+        <v>7.057889448435246E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H14">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I14">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J14">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N14">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O14">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P14">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q14">
-        <v>88.87683970144715</v>
+        <v>101.83078158422</v>
       </c>
       <c r="R14">
-        <v>88.87683970144715</v>
+        <v>610.98468950532</v>
       </c>
       <c r="S14">
-        <v>0.02432384532614098</v>
+        <v>0.02636236830457263</v>
       </c>
       <c r="T14">
-        <v>0.02432384532614098</v>
+        <v>0.02627828697619504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H15">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I15">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J15">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N15">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P15">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q15">
-        <v>2.639387412549235</v>
+        <v>3.177415571783333</v>
       </c>
       <c r="R15">
-        <v>2.639387412549235</v>
+        <v>28.59674014605</v>
       </c>
       <c r="S15">
-        <v>0.0007223484925237019</v>
+        <v>0.0008225823101510674</v>
       </c>
       <c r="T15">
-        <v>0.0007223484925237019</v>
+        <v>0.001229938093456982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H16">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I16">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J16">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N16">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O16">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P16">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q16">
-        <v>0.8461172380338891</v>
+        <v>1.82535858313</v>
       </c>
       <c r="R16">
-        <v>0.8461172380338891</v>
+        <v>16.42822724817</v>
       </c>
       <c r="S16">
-        <v>0.0002315656687934958</v>
+        <v>0.0004725562792286655</v>
       </c>
       <c r="T16">
-        <v>0.0002315656687934958</v>
+        <v>0.0007065736303262951</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H17">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I17">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J17">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N17">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O17">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P17">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q17">
-        <v>1.97911091259527</v>
+        <v>2.488435713893333</v>
       </c>
       <c r="R17">
-        <v>1.97911091259527</v>
+        <v>22.39592142504</v>
       </c>
       <c r="S17">
-        <v>0.0005416437834980898</v>
+        <v>0.0006442163928365045</v>
       </c>
       <c r="T17">
-        <v>0.0005416437834980898</v>
+        <v>0.000963242549956551</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H18">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I18">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J18">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N18">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O18">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P18">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q18">
-        <v>53.40265305672049</v>
+        <v>63.41799164311</v>
       </c>
       <c r="R18">
-        <v>53.40265305672049</v>
+        <v>570.76192478799</v>
       </c>
       <c r="S18">
-        <v>0.01461525721797339</v>
+        <v>0.01641790848329352</v>
       </c>
       <c r="T18">
-        <v>0.01461525721797339</v>
+        <v>0.02454831669645897</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H19">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I19">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J19">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N19">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O19">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P19">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q19">
-        <v>1.501440494765877</v>
+        <v>2.05417835865</v>
       </c>
       <c r="R19">
-        <v>1.501440494765877</v>
+        <v>12.3250701519</v>
       </c>
       <c r="S19">
-        <v>0.0004109147724398116</v>
+        <v>0.0005317940765212145</v>
       </c>
       <c r="T19">
-        <v>0.0004109147724398116</v>
+        <v>0.0005300979484700227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H20">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I20">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J20">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N20">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O20">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P20">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q20">
-        <v>205.9140402190159</v>
+        <v>240.0639075920973</v>
       </c>
       <c r="R20">
-        <v>205.9140402190159</v>
+        <v>1440.383445552584</v>
       </c>
       <c r="S20">
-        <v>0.05635462828778511</v>
+        <v>0.06214872409030459</v>
       </c>
       <c r="T20">
-        <v>0.05635462828778511</v>
+        <v>0.06195050414215301</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H21">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I21">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J21">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N21">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P21">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q21">
-        <v>6.115056831981145</v>
+        <v>7.490689812445555</v>
       </c>
       <c r="R21">
-        <v>6.115056831981145</v>
+        <v>67.41620831201</v>
       </c>
       <c r="S21">
-        <v>0.001673570944256349</v>
+        <v>0.00193922034790314</v>
       </c>
       <c r="T21">
-        <v>0.001673570944256349</v>
+        <v>0.002899552966383322</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H22">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I22">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J22">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N22">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O22">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P22">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q22">
-        <v>1.960324192081686</v>
+        <v>4.303244140972666</v>
       </c>
       <c r="R22">
-        <v>1.960324192081686</v>
+        <v>38.729197268754</v>
       </c>
       <c r="S22">
-        <v>0.0005365022270983247</v>
+        <v>0.001114041404611936</v>
       </c>
       <c r="T22">
-        <v>0.0005365022270983247</v>
+        <v>0.001665732345944693</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H23">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I23">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J23">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N23">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O23">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P23">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q23">
-        <v>4.585297198043825</v>
+        <v>5.866434411827554</v>
       </c>
       <c r="R23">
-        <v>4.585297198043825</v>
+        <v>52.797909706448</v>
       </c>
       <c r="S23">
-        <v>0.001254905779663873</v>
+        <v>0.001518726481258614</v>
       </c>
       <c r="T23">
-        <v>0.001254905779663873</v>
+        <v>0.002270823879617352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H24">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I24">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J24">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N24">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O24">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P24">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q24">
-        <v>123.725776999524</v>
+        <v>149.5065701022486</v>
       </c>
       <c r="R24">
-        <v>123.725776999524</v>
+        <v>1345.559130920238</v>
       </c>
       <c r="S24">
-        <v>0.03386131496914636</v>
+        <v>0.03870487099943509</v>
       </c>
       <c r="T24">
-        <v>0.03386131496914636</v>
+        <v>0.05787213590309405</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H25">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I25">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J25">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N25">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O25">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P25">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q25">
-        <v>3.478607919276025</v>
+        <v>4.842681908129999</v>
       </c>
       <c r="R25">
-        <v>3.478607919276025</v>
+        <v>29.05609144877999</v>
       </c>
       <c r="S25">
-        <v>0.0009520266614225866</v>
+        <v>0.001253693255201302</v>
       </c>
       <c r="T25">
-        <v>0.0009520266614225866</v>
+        <v>0.001249694669298188</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H26">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I26">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J26">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N26">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O26">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P26">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q26">
-        <v>752.411158972473</v>
+        <v>774.4062824160952</v>
       </c>
       <c r="R26">
-        <v>752.411158972473</v>
+        <v>4646.437694496572</v>
       </c>
       <c r="S26">
-        <v>0.2059201555094325</v>
+        <v>0.2004814587182898</v>
       </c>
       <c r="T26">
-        <v>0.2059201555094325</v>
+        <v>0.1998420340972027</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H27">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I27">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J27">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N27">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P27">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q27">
-        <v>22.34445496402131</v>
+        <v>24.16372085488389</v>
       </c>
       <c r="R27">
-        <v>22.34445496402131</v>
+        <v>217.473487693955</v>
       </c>
       <c r="S27">
-        <v>0.006115238438579714</v>
+        <v>0.006255602666257497</v>
       </c>
       <c r="T27">
-        <v>0.006115238438579714</v>
+        <v>0.009353476146779957</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H28">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I28">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J28">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N28">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O28">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P28">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q28">
-        <v>7.163036555239939</v>
+        <v>13.88155067108966</v>
       </c>
       <c r="R28">
-        <v>7.163036555239939</v>
+        <v>124.933956039807</v>
       </c>
       <c r="S28">
-        <v>0.00196038241031553</v>
+        <v>0.003593712487880598</v>
       </c>
       <c r="T28">
-        <v>0.00196038241031553</v>
+        <v>0.005373375808391344</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H29">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I29">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J29">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N29">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O29">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P29">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q29">
-        <v>16.75470393055199</v>
+        <v>18.92414278126488</v>
       </c>
       <c r="R29">
-        <v>16.75470393055199</v>
+        <v>170.317285031384</v>
       </c>
       <c r="S29">
-        <v>0.004585433373430325</v>
+        <v>0.004899159312014286</v>
       </c>
       <c r="T29">
-        <v>0.004585433373430325</v>
+        <v>0.007325300567981164</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H30">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I30">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J30">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N30">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O30">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P30">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q30">
-        <v>452.094743845372</v>
+        <v>482.2833565901476</v>
       </c>
       <c r="R30">
-        <v>452.094743845372</v>
+        <v>4340.550209311328</v>
       </c>
       <c r="S30">
-        <v>0.1237294514408471</v>
+        <v>0.1248554835364754</v>
       </c>
       <c r="T30">
-        <v>0.1237294514408471</v>
+        <v>0.186685895725499</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H31">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I31">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J31">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N31">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O31">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P31">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q31">
-        <v>12.7108545554709</v>
+        <v>15.621687287415</v>
       </c>
       <c r="R31">
-        <v>12.7108545554709</v>
+        <v>93.73012372448999</v>
       </c>
       <c r="S31">
-        <v>0.003478711227907381</v>
+        <v>0.004044206156554844</v>
       </c>
       <c r="T31">
-        <v>0.003478711227907381</v>
+        <v>0.00403130738274411</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H32">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I32">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J32">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N32">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O32">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P32">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q32">
-        <v>95.61934588976595</v>
+        <v>97.88546807787799</v>
       </c>
       <c r="R32">
-        <v>95.61934588976595</v>
+        <v>391.541872311512</v>
       </c>
       <c r="S32">
-        <v>0.02616913683499899</v>
+        <v>0.02534098944335695</v>
       </c>
       <c r="T32">
-        <v>0.02616913683499899</v>
+        <v>0.01684011049790641</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H33">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I33">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J33">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N33">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P33">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q33">
-        <v>2.839620521897678</v>
+        <v>3.054310353738333</v>
       </c>
       <c r="R33">
-        <v>2.839620521897678</v>
+        <v>18.32586212243</v>
       </c>
       <c r="S33">
-        <v>0.0007771483616158576</v>
+        <v>0.0007907123289152566</v>
       </c>
       <c r="T33">
-        <v>0.0007771483616158576</v>
+        <v>0.0007881903952933751</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H34">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I34">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J34">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N34">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O34">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P34">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q34">
-        <v>0.9103066346489198</v>
+        <v>1.754637218137</v>
       </c>
       <c r="R34">
-        <v>0.9103066346489198</v>
+        <v>10.527823308822</v>
       </c>
       <c r="S34">
-        <v>0.0002491330458524362</v>
+        <v>0.0004542476436477274</v>
       </c>
       <c r="T34">
-        <v>0.0002491330458524362</v>
+        <v>0.0004527988456926641</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H35">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I35">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J35">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N35">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O35">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P35">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q35">
-        <v>2.129253150104708</v>
+        <v>2.392024207677333</v>
       </c>
       <c r="R35">
-        <v>2.129253150104708</v>
+        <v>14.352145246064</v>
       </c>
       <c r="S35">
-        <v>0.0005827347648422523</v>
+        <v>0.00061925698865514</v>
       </c>
       <c r="T35">
-        <v>0.0005827347648422523</v>
+        <v>0.0006172819024408944</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H36">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I36">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J36">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N36">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O36">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P36">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q36">
-        <v>57.45396406099461</v>
+        <v>60.96093636883899</v>
       </c>
       <c r="R36">
-        <v>57.45396406099461</v>
+        <v>365.765618213034</v>
       </c>
       <c r="S36">
-        <v>0.01572402146484671</v>
+        <v>0.01578181598672897</v>
       </c>
       <c r="T36">
-        <v>0.01572402146484671</v>
+        <v>0.01573148074988515</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H37">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I37">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J37">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N37">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O37">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P37">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q37">
-        <v>1.615344992960883</v>
+        <v>1.974591641385</v>
       </c>
       <c r="R37">
-        <v>1.615344992960883</v>
+        <v>7.898366565539998</v>
       </c>
       <c r="S37">
-        <v>0.0004420881963076489</v>
+        <v>0.0005111903423648919</v>
       </c>
       <c r="T37">
-        <v>0.0004420881963076489</v>
+        <v>0.0003397066191961212</v>
       </c>
     </row>
   </sheetData>
